--- a/xlsx/秦始皇_intext.xlsx
+++ b/xlsx/秦始皇_intext.xlsx
@@ -29,7 +29,7 @@
     <t>中国皇帝</t>
   </si>
   <si>
-    <t>政策_政策_政治_秦始皇</t>
+    <t>体育运动_体育运动_宦官_秦始皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%A6%E5%A7%8B%E7%9A%87_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
@@ -4556,10 +4556,10 @@
     <t>张彬彬</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%A2%E5%A4%A9%E4%B8%8B</t>
-  </si>
-  <si>
-    <t>赢天下</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%B8%85%E4%BC%A0</t>
+  </si>
+  <si>
+    <t>巴清传</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%9B%B2%E7%BF%94</t>
@@ -9614,7 +9614,7 @@
         <v>278</v>
       </c>
       <c r="G144" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H144" t="s">
         <v>4</v>
